--- a/biology/Botanique/Olea_tsoongii/Olea_tsoongii.xlsx
+++ b/biology/Botanique/Olea_tsoongii/Olea_tsoongii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olea tsoongii (Merrill) P. S. Green est un végétal appartenant au genre Olea. Arbre ou arbuste, il pousse en Chine (en langue chinoise translittérée : yun nan mu xi lan).
 </t>
@@ -513,16 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Appareil végétatif
-Ce sont des buissons ou des arbres de 3 à 15 m de  haut, polygamo-dioïques. Les petites branches sont cylindriques et allongées, finement pubescentes à glabrescentes.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des buissons ou des arbres de 3 à 15 m de  haut, polygamo-dioïques. Les petites branches sont cylindriques et allongées, finement pubescentes à glabrescentes.
 Les pétioles des feuilles ont de 3 à 10 mm de longueur, pubescents à finement pubérulents. Le limbe des feuilles est oblancéolé, obovale-elliptique, elliptique ou elliptique-oblong, (3-)4 à 9(-14) par (1,5-) 2 à 3(-6) cm, coriaces, glabres ou pubérulent le long de la nervure centrale spécialement près du pétiole, la base est atténuée, la marge est entière ou finement dentelée, les dents sont aigües et mesurent 0,5 mm, l'apex est aigu à obtus ou arrondi, souvent légèrement acuminé ; les nervures primaires sont au nombre de 5 à 7 de chaque côté de la nervure centrale, souvent obscures.
-Appareil reproducteur
-Inflorescences axillary, paniculate, 2–10 cm, puberulent to glabrescent. Flowers usually in subumbellate groups, white, yellowish, or red. Staminate flowers: pedicel 1–5 mm, slender, glabrous; calyx 1-1.5 mm; corolla 2-3.5(-4.5) mm, lobes broadly deltate, 0.5-1.2 mm. Bisexual flowers: pedicel 0–2 mm, stout; calyx as in staminate flowers; corolla 2-4.5 mm, lobes 0.5-1.5 mm. Drupe purple-black, ovoid-globose, long ellipsoid, or subglobose, 6-13 × 3–9 mm. Fl. Feb-Nov, fr. May-Dec.
-Répartition géographique
-En Chine, on le trouve dans les forêts et les fourrés, entre 800 et 2.300 m dessous de 700 m. On le rencontre dans les provinces de Guangdong, Guangxi, Guizhou, Sichuan, Yunnan et Hainan.
-On le trouve également  en Asie tropicale :
-Indochine : Cambodge, Thaïlande et Vietnam.
-Péninsule Malaise : Indonésie, Malaisie et Singapour.</t>
+</t>
         </is>
       </c>
     </row>
@@ -547,10 +558,88 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inflorescences axillary, paniculate, 2–10 cm, puberulent to glabrescent. Flowers usually in subumbellate groups, white, yellowish, or red. Staminate flowers: pedicel 1–5 mm, slender, glabrous; calyx 1-1.5 mm; corolla 2-3.5(-4.5) mm, lobes broadly deltate, 0.5-1.2 mm. Bisexual flowers: pedicel 0–2 mm, stout; calyx as in staminate flowers; corolla 2-4.5 mm, lobes 0.5-1.5 mm. Drupe purple-black, ovoid-globose, long ellipsoid, or subglobose, 6-13 × 3–9 mm. Fl. Feb-Nov, fr. May-Dec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olea_tsoongii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_tsoongii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En Chine, on le trouve dans les forêts et les fourrés, entre 800 et 2.300 m dessous de 700 m. On le rencontre dans les provinces de Guangdong, Guangxi, Guizhou, Sichuan, Yunnan et Hainan.
+On le trouve également  en Asie tropicale :
+Indochine : Cambodge, Thaïlande et Vietnam.
+Péninsule Malaise : Indonésie, Malaisie et Singapour.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olea_tsoongii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olea_tsoongii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ligustrum tsoongii Merrill, Philipp. J. Sci. 21: 506. 1922;
 Olea brevipes L. C. Chia;
@@ -560,62 +649,66 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Olea_tsoongii</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_tsoongii</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'huile extraite des graines est utilisée pour l'alimentation et l'industrie.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Olea_tsoongii</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olea_tsoongii</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
